--- a/biology/Médecine/1141_en_santé_et_médecine/1141_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1141_en_santé_et_médecine/1141_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1141_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1141_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1141 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1141_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1141_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fondation de la léproserie de la Madeleine, à Rennes, en Bretagne[1].
-Fondation à Venise en Italie de l'hôpital S. Clemente par Pietro Gatellessi sur la rive du canal Orfano (it)[2].
-Année supposée de la fondation d'une maladrerie par Aliénor d'Aquitaine au port de l'Hôpiteau, à Geay, sur la Charente[3].
-Année possible de la fondation de la léproserie Saint-Barthélemy de Douvres, dans le comté de Kent, au Sud-Est de l'Angleterre, « par un propriétaire terrien, pour deux de ses frères et pour les chanoines lépreux du prieuré augustin voisin[4] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fondation de la léproserie de la Madeleine, à Rennes, en Bretagne.
+Fondation à Venise en Italie de l'hôpital S. Clemente par Pietro Gatellessi sur la rive du canal Orfano (it).
+Année supposée de la fondation d'une maladrerie par Aliénor d'Aquitaine au port de l'Hôpiteau, à Geay, sur la Charente.
+Année possible de la fondation de la léproserie Saint-Barthélemy de Douvres, dans le comté de Kent, au Sud-Est de l'Angleterre, « par un propriétaire terrien, pour deux de ses frères et pour les chanoines lépreux du prieuré augustin voisin ».</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1141_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1141_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,12 +558,14 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fl. Baudouin, médecin, qui cède sa maison de Nogent-le-Rotrou à l'abbaye de la Sainte-Trinité de Tiron, dans le Perche[5].
-Fl. Dultianus, médecin du roi de France Louis VII, « rangé, probablement à tort, parmi les médecins montpelliérains[6] ».
-1108-1141 : fl. Salomon, médecin, probablement d'origine juive et, selon Chéreau dans le Dictionnaire de Dechambre, au service de Philippe Ier, roi de France[6],[7].
-1141-1149 : fl. Arnaud, médecin, cité dans une charte de l'abbaye Saint-Étienne de Baignes en Saintonge[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fl. Baudouin, médecin, qui cède sa maison de Nogent-le-Rotrou à l'abbaye de la Sainte-Trinité de Tiron, dans le Perche.
+Fl. Dultianus, médecin du roi de France Louis VII, « rangé, probablement à tort, parmi les médecins montpelliérains ».
+1108-1141 : fl. Salomon, médecin, probablement d'origine juive et, selon Chéreau dans le Dictionnaire de Dechambre, au service de Philippe Ier, roi de France,.
+1141-1149 : fl. Arnaud, médecin, cité dans une charte de l'abbaye Saint-Étienne de Baignes en Saintonge.</t>
         </is>
       </c>
     </row>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1141_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1141_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,10 +593,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>17 juillet : Adalbert II de Sarrebruck (né à une date inconnue), successeur de son oncle Adalbert Ier au siège métropolitain de Mayence et à propos duquel son biographe, Anselme de Havelberg, en évoquant ses études de médecine dans sa Vita Adalberti II, livre « le premier témoignage connu sur l'existence d'une école de médecine à Montpellier[8],[5],[9] ».
-Vers 1141 : Juda Halevi (né vers 1075), rabbin, philosophe, médecin et poète saragossain[10],[11].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>17 juillet : Adalbert II de Sarrebruck (né à une date inconnue), successeur de son oncle Adalbert Ier au siège métropolitain de Mayence et à propos duquel son biographe, Anselme de Havelberg, en évoquant ses études de médecine dans sa Vita Adalberti II, livre « le premier témoignage connu sur l'existence d'une école de médecine à Montpellier ».
+Vers 1141 : Juda Halevi (né vers 1075), rabbin, philosophe, médecin et poète saragossain,.</t>
         </is>
       </c>
     </row>
